--- a/natmiOut/YoungD7/LR-pairs_lrc2p/H2-K1-Aplp2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/H2-K1-Aplp2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>185.326265176842</v>
+        <v>198.4680276666666</v>
       </c>
       <c r="H2">
-        <v>185.326265176842</v>
+        <v>595.4040829999999</v>
       </c>
       <c r="I2">
-        <v>0.2859114587441058</v>
+        <v>0.2835009389723355</v>
       </c>
       <c r="J2">
-        <v>0.2859114587441058</v>
+        <v>0.2835009389723355</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>100.182359127593</v>
+        <v>131.4884046666667</v>
       </c>
       <c r="N2">
-        <v>100.182359127593</v>
+        <v>394.465214</v>
       </c>
       <c r="O2">
-        <v>0.4404472159873313</v>
+        <v>0.5054529031486338</v>
       </c>
       <c r="P2">
-        <v>0.4404472159873313</v>
+        <v>0.5054529031486338</v>
       </c>
       <c r="Q2">
-        <v>18566.42245372192</v>
+        <v>26096.24433522986</v>
       </c>
       <c r="R2">
-        <v>18566.42245372192</v>
+        <v>234866.1990170687</v>
       </c>
       <c r="S2">
-        <v>0.1259289060227182</v>
+        <v>0.1432963726489306</v>
       </c>
       <c r="T2">
-        <v>0.1259289060227182</v>
+        <v>0.1432963726489306</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>185.326265176842</v>
+        <v>198.4680276666666</v>
       </c>
       <c r="H3">
-        <v>185.326265176842</v>
+        <v>595.4040829999999</v>
       </c>
       <c r="I3">
-        <v>0.2859114587441058</v>
+        <v>0.2835009389723355</v>
       </c>
       <c r="J3">
-        <v>0.2859114587441058</v>
+        <v>0.2835009389723355</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.7455770127376</v>
+        <v>37.83955</v>
       </c>
       <c r="N3">
-        <v>37.7455770127376</v>
+        <v>113.51865</v>
       </c>
       <c r="O3">
-        <v>0.165946724112596</v>
+        <v>0.1454585326350568</v>
       </c>
       <c r="P3">
-        <v>0.165946724112596</v>
+        <v>0.1454585326350568</v>
       </c>
       <c r="Q3">
-        <v>6995.24681471552</v>
+        <v>7509.940856294216</v>
       </c>
       <c r="R3">
-        <v>6995.24681471552</v>
+        <v>67589.46770664795</v>
       </c>
       <c r="S3">
-        <v>0.04744606996483799</v>
+        <v>0.04123763058357671</v>
       </c>
       <c r="T3">
-        <v>0.04744606996483799</v>
+        <v>0.04123763058357671</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>185.326265176842</v>
+        <v>198.4680276666666</v>
       </c>
       <c r="H4">
-        <v>185.326265176842</v>
+        <v>595.4040829999999</v>
       </c>
       <c r="I4">
-        <v>0.2859114587441058</v>
+        <v>0.2835009389723355</v>
       </c>
       <c r="J4">
-        <v>0.2859114587441058</v>
+        <v>0.2835009389723355</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.6156631751448</v>
+        <v>50.31467799999999</v>
       </c>
       <c r="N4">
-        <v>49.6156631751448</v>
+        <v>150.944034</v>
       </c>
       <c r="O4">
-        <v>0.2181330216732612</v>
+        <v>0.1934140134300057</v>
       </c>
       <c r="P4">
-        <v>0.2181330216732612</v>
+        <v>0.1934140134300057</v>
       </c>
       <c r="Q4">
-        <v>9195.085550521761</v>
+        <v>9985.854905343422</v>
       </c>
       <c r="R4">
-        <v>9195.085550521761</v>
+        <v>89872.6941480908</v>
       </c>
       <c r="S4">
-        <v>0.06236673042686178</v>
+        <v>0.05483305441781453</v>
       </c>
       <c r="T4">
-        <v>0.06236673042686178</v>
+        <v>0.05483305441781453</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>185.326265176842</v>
+        <v>198.4680276666666</v>
       </c>
       <c r="H5">
-        <v>185.326265176842</v>
+        <v>595.4040829999999</v>
       </c>
       <c r="I5">
-        <v>0.2859114587441058</v>
+        <v>0.2835009389723355</v>
       </c>
       <c r="J5">
-        <v>0.2859114587441058</v>
+        <v>0.2835009389723355</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.9123942546476</v>
+        <v>40.49714266666666</v>
       </c>
       <c r="N5">
-        <v>39.9123942546476</v>
+        <v>121.491428</v>
       </c>
       <c r="O5">
-        <v>0.1754730382268116</v>
+        <v>0.1556745507863038</v>
       </c>
       <c r="P5">
-        <v>0.1754730382268116</v>
+        <v>0.1556745507863038</v>
       </c>
       <c r="Q5">
-        <v>7396.814961479487</v>
+        <v>8037.388031188945</v>
       </c>
       <c r="R5">
-        <v>7396.814961479487</v>
+        <v>72336.49228070051</v>
       </c>
       <c r="S5">
-        <v>0.05016975232968795</v>
+        <v>0.04413388132201367</v>
       </c>
       <c r="T5">
-        <v>0.05016975232968795</v>
+        <v>0.04413388132201367</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>73.7888195374957</v>
+        <v>74.01845299999999</v>
       </c>
       <c r="H6">
-        <v>73.7888195374957</v>
+        <v>222.055359</v>
       </c>
       <c r="I6">
-        <v>0.1138374477726604</v>
+        <v>0.1057313924740739</v>
       </c>
       <c r="J6">
-        <v>0.1138374477726604</v>
+        <v>0.1057313924740739</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>100.182359127593</v>
+        <v>131.4884046666667</v>
       </c>
       <c r="N6">
-        <v>100.182359127593</v>
+        <v>394.465214</v>
       </c>
       <c r="O6">
-        <v>0.4404472159873313</v>
+        <v>0.5054529031486338</v>
       </c>
       <c r="P6">
-        <v>0.4404472159873313</v>
+        <v>0.5054529031486338</v>
       </c>
       <c r="Q6">
-        <v>7392.338018506545</v>
+        <v>9732.568300864647</v>
       </c>
       <c r="R6">
-        <v>7392.338018506545</v>
+        <v>87593.11470778182</v>
       </c>
       <c r="S6">
-        <v>0.05013938694657152</v>
+        <v>0.05344223927996825</v>
       </c>
       <c r="T6">
-        <v>0.05013938694657152</v>
+        <v>0.05344223927996825</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>73.7888195374957</v>
+        <v>74.01845299999999</v>
       </c>
       <c r="H7">
-        <v>73.7888195374957</v>
+        <v>222.055359</v>
       </c>
       <c r="I7">
-        <v>0.1138374477726604</v>
+        <v>0.1057313924740739</v>
       </c>
       <c r="J7">
-        <v>0.1138374477726604</v>
+        <v>0.1057313924740739</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.7455770127376</v>
+        <v>37.83955</v>
       </c>
       <c r="N7">
-        <v>37.7455770127376</v>
+        <v>113.51865</v>
       </c>
       <c r="O7">
-        <v>0.165946724112596</v>
+        <v>0.1454585326350568</v>
       </c>
       <c r="P7">
-        <v>0.165946724112596</v>
+        <v>0.1454585326350568</v>
       </c>
       <c r="Q7">
-        <v>2785.201570531541</v>
+        <v>2800.82495321615</v>
       </c>
       <c r="R7">
-        <v>2785.201570531541</v>
+        <v>25207.42457894535</v>
       </c>
       <c r="S7">
-        <v>0.01889095153921173</v>
+        <v>0.01537953320274007</v>
       </c>
       <c r="T7">
-        <v>0.01889095153921173</v>
+        <v>0.01537953320274007</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>73.7888195374957</v>
+        <v>74.01845299999999</v>
       </c>
       <c r="H8">
-        <v>73.7888195374957</v>
+        <v>222.055359</v>
       </c>
       <c r="I8">
-        <v>0.1138374477726604</v>
+        <v>0.1057313924740739</v>
       </c>
       <c r="J8">
-        <v>0.1138374477726604</v>
+        <v>0.1057313924740739</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>49.6156631751448</v>
+        <v>50.31467799999999</v>
       </c>
       <c r="N8">
-        <v>49.6156631751448</v>
+        <v>150.944034</v>
       </c>
       <c r="O8">
-        <v>0.2181330216732612</v>
+        <v>0.1934140134300057</v>
       </c>
       <c r="P8">
-        <v>0.2181330216732612</v>
+        <v>0.1934140134300057</v>
       </c>
       <c r="Q8">
-        <v>3661.081216263931</v>
+        <v>3724.214628753133</v>
       </c>
       <c r="R8">
-        <v>3661.081216263931</v>
+        <v>33517.9316587782</v>
       </c>
       <c r="S8">
-        <v>0.02483170646222248</v>
+        <v>0.02044993296395373</v>
       </c>
       <c r="T8">
-        <v>0.02483170646222248</v>
+        <v>0.02044993296395373</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>73.7888195374957</v>
+        <v>74.01845299999999</v>
       </c>
       <c r="H9">
-        <v>73.7888195374957</v>
+        <v>222.055359</v>
       </c>
       <c r="I9">
-        <v>0.1138374477726604</v>
+        <v>0.1057313924740739</v>
       </c>
       <c r="J9">
-        <v>0.1138374477726604</v>
+        <v>0.1057313924740739</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.9123942546476</v>
+        <v>40.49714266666666</v>
       </c>
       <c r="N9">
-        <v>39.9123942546476</v>
+        <v>121.491428</v>
       </c>
       <c r="O9">
-        <v>0.1754730382268116</v>
+        <v>0.1556745507863038</v>
       </c>
       <c r="P9">
-        <v>0.1754730382268116</v>
+        <v>0.1556745507863038</v>
       </c>
       <c r="Q9">
-        <v>2945.088456965572</v>
+        <v>2997.535851106961</v>
       </c>
       <c r="R9">
-        <v>2945.088456965572</v>
+        <v>26977.82265996265</v>
       </c>
       <c r="S9">
-        <v>0.01997540282465472</v>
+        <v>0.01645968702741183</v>
       </c>
       <c r="T9">
-        <v>0.01997540282465472</v>
+        <v>0.01645968702741183</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>368.435301697048</v>
+        <v>405.8333793333334</v>
       </c>
       <c r="H10">
-        <v>368.435301697048</v>
+        <v>1217.500138</v>
       </c>
       <c r="I10">
-        <v>0.5684022955974983</v>
+        <v>0.5797112283523728</v>
       </c>
       <c r="J10">
-        <v>0.5684022955974983</v>
+        <v>0.5797112283523728</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>100.182359127593</v>
+        <v>131.4884046666667</v>
       </c>
       <c r="N10">
-        <v>100.182359127593</v>
+        <v>394.465214</v>
       </c>
       <c r="O10">
-        <v>0.4404472159873313</v>
+        <v>0.5054529031486338</v>
       </c>
       <c r="P10">
-        <v>0.4404472159873313</v>
+        <v>0.5054529031486338</v>
       </c>
       <c r="Q10">
-        <v>36910.71770989674</v>
+        <v>53362.38360902217</v>
       </c>
       <c r="R10">
-        <v>36910.71770989674</v>
+        <v>480261.4524811996</v>
       </c>
       <c r="S10">
-        <v>0.2503512086567263</v>
+        <v>0.2930167233585674</v>
       </c>
       <c r="T10">
-        <v>0.2503512086567263</v>
+        <v>0.2930167233585674</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>368.435301697048</v>
+        <v>405.8333793333334</v>
       </c>
       <c r="H11">
-        <v>368.435301697048</v>
+        <v>1217.500138</v>
       </c>
       <c r="I11">
-        <v>0.5684022955974983</v>
+        <v>0.5797112283523728</v>
       </c>
       <c r="J11">
-        <v>0.5684022955974983</v>
+        <v>0.5797112283523728</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.7455770127376</v>
+        <v>37.83955</v>
       </c>
       <c r="N11">
-        <v>37.7455770127376</v>
+        <v>113.51865</v>
       </c>
       <c r="O11">
-        <v>0.165946724112596</v>
+        <v>0.1454585326350568</v>
       </c>
       <c r="P11">
-        <v>0.165946724112596</v>
+        <v>0.1454585326350568</v>
       </c>
       <c r="Q11">
-        <v>13906.80305441714</v>
+        <v>15356.55244895264</v>
       </c>
       <c r="R11">
-        <v>13906.80305441714</v>
+        <v>138208.9720405737</v>
       </c>
       <c r="S11">
-        <v>0.09432449893248426</v>
+        <v>0.08432394462820247</v>
       </c>
       <c r="T11">
-        <v>0.09432449893248426</v>
+        <v>0.08432394462820247</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>368.435301697048</v>
+        <v>405.8333793333334</v>
       </c>
       <c r="H12">
-        <v>368.435301697048</v>
+        <v>1217.500138</v>
       </c>
       <c r="I12">
-        <v>0.5684022955974983</v>
+        <v>0.5797112283523728</v>
       </c>
       <c r="J12">
-        <v>0.5684022955974983</v>
+        <v>0.5797112283523728</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>49.6156631751448</v>
+        <v>50.31467799999999</v>
       </c>
       <c r="N12">
-        <v>49.6156631751448</v>
+        <v>150.944034</v>
       </c>
       <c r="O12">
-        <v>0.2181330216732612</v>
+        <v>0.1934140134300057</v>
       </c>
       <c r="P12">
-        <v>0.2181330216732612</v>
+        <v>0.1934140134300057</v>
       </c>
       <c r="Q12">
-        <v>18280.16183083359</v>
+        <v>20419.37580280852</v>
       </c>
       <c r="R12">
-        <v>18280.16183083359</v>
+        <v>183774.3822252767</v>
       </c>
       <c r="S12">
-        <v>0.1239873102647005</v>
+        <v>0.1121242753060709</v>
       </c>
       <c r="T12">
-        <v>0.1239873102647005</v>
+        <v>0.1121242753060709</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>368.435301697048</v>
+        <v>405.8333793333334</v>
       </c>
       <c r="H13">
-        <v>368.435301697048</v>
+        <v>1217.500138</v>
       </c>
       <c r="I13">
-        <v>0.5684022955974983</v>
+        <v>0.5797112283523728</v>
       </c>
       <c r="J13">
-        <v>0.5684022955974983</v>
+        <v>0.5797112283523728</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>39.9123942546476</v>
+        <v>40.49714266666666</v>
       </c>
       <c r="N13">
-        <v>39.9123942546476</v>
+        <v>121.491428</v>
       </c>
       <c r="O13">
-        <v>0.1754730382268116</v>
+        <v>0.1556745507863038</v>
       </c>
       <c r="P13">
-        <v>0.1754730382268116</v>
+        <v>0.1556745507863038</v>
       </c>
       <c r="Q13">
-        <v>14705.13501866261</v>
+        <v>16435.09226175745</v>
       </c>
       <c r="R13">
-        <v>14705.13501866261</v>
+        <v>147915.830355817</v>
       </c>
       <c r="S13">
-        <v>0.09973927774358729</v>
+        <v>0.09024628505953203</v>
       </c>
       <c r="T13">
-        <v>0.09973927774358729</v>
+        <v>0.09024628505953203</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.6442189776596</v>
+        <v>21.741411</v>
       </c>
       <c r="H14">
-        <v>20.6442189776596</v>
+        <v>65.224233</v>
       </c>
       <c r="I14">
-        <v>0.03184879788573522</v>
+        <v>0.03105644020121776</v>
       </c>
       <c r="J14">
-        <v>0.03184879788573522</v>
+        <v>0.03105644020121776</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>100.182359127593</v>
+        <v>131.4884046666667</v>
       </c>
       <c r="N14">
-        <v>100.182359127593</v>
+        <v>394.465214</v>
       </c>
       <c r="O14">
-        <v>0.4404472159873313</v>
+        <v>0.5054529031486338</v>
       </c>
       <c r="P14">
-        <v>0.4404472159873313</v>
+        <v>0.5054529031486338</v>
       </c>
       <c r="Q14">
-        <v>2068.186559528565</v>
+        <v>2858.743447592318</v>
       </c>
       <c r="R14">
-        <v>2068.186559528565</v>
+        <v>25728.69102833086</v>
       </c>
       <c r="S14">
-        <v>0.01402771436131528</v>
+        <v>0.01569756786116746</v>
       </c>
       <c r="T14">
-        <v>0.01402771436131528</v>
+        <v>0.01569756786116746</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.6442189776596</v>
+        <v>21.741411</v>
       </c>
       <c r="H15">
-        <v>20.6442189776596</v>
+        <v>65.224233</v>
       </c>
       <c r="I15">
-        <v>0.03184879788573522</v>
+        <v>0.03105644020121776</v>
       </c>
       <c r="J15">
-        <v>0.03184879788573522</v>
+        <v>0.03105644020121776</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>37.7455770127376</v>
+        <v>37.83955</v>
       </c>
       <c r="N15">
-        <v>37.7455770127376</v>
+        <v>113.51865</v>
       </c>
       <c r="O15">
-        <v>0.165946724112596</v>
+        <v>0.1454585326350568</v>
       </c>
       <c r="P15">
-        <v>0.165946724112596</v>
+        <v>0.1454585326350568</v>
       </c>
       <c r="Q15">
-        <v>779.2279572890695</v>
+        <v>822.68520860505</v>
       </c>
       <c r="R15">
-        <v>779.2279572890695</v>
+        <v>7404.16687744545</v>
       </c>
       <c r="S15">
-        <v>0.005285203676061932</v>
+        <v>0.004517424220537522</v>
       </c>
       <c r="T15">
-        <v>0.005285203676061932</v>
+        <v>0.004517424220537522</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.6442189776596</v>
+        <v>21.741411</v>
       </c>
       <c r="H16">
-        <v>20.6442189776596</v>
+        <v>65.224233</v>
       </c>
       <c r="I16">
-        <v>0.03184879788573522</v>
+        <v>0.03105644020121776</v>
       </c>
       <c r="J16">
-        <v>0.03184879788573522</v>
+        <v>0.03105644020121776</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.6156631751448</v>
+        <v>50.31467799999999</v>
       </c>
       <c r="N16">
-        <v>49.6156631751448</v>
+        <v>150.944034</v>
       </c>
       <c r="O16">
-        <v>0.2181330216732612</v>
+        <v>0.1934140134300057</v>
       </c>
       <c r="P16">
-        <v>0.2181330216732612</v>
+        <v>0.1934140134300057</v>
       </c>
       <c r="Q16">
-        <v>1024.276615309491</v>
+        <v>1093.912093730658</v>
       </c>
       <c r="R16">
-        <v>1024.276615309491</v>
+        <v>9845.208843575921</v>
       </c>
       <c r="S16">
-        <v>0.006947274519476397</v>
+        <v>0.0060067507421665</v>
       </c>
       <c r="T16">
-        <v>0.006947274519476397</v>
+        <v>0.0060067507421665</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.6442189776596</v>
+        <v>21.741411</v>
       </c>
       <c r="H17">
-        <v>20.6442189776596</v>
+        <v>65.224233</v>
       </c>
       <c r="I17">
-        <v>0.03184879788573522</v>
+        <v>0.03105644020121776</v>
       </c>
       <c r="J17">
-        <v>0.03184879788573522</v>
+        <v>0.03105644020121776</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>39.9123942546476</v>
+        <v>40.49714266666666</v>
       </c>
       <c r="N17">
-        <v>39.9123942546476</v>
+        <v>121.491428</v>
       </c>
       <c r="O17">
-        <v>0.1754730382268116</v>
+        <v>0.1556745507863038</v>
       </c>
       <c r="P17">
-        <v>0.1754730382268116</v>
+        <v>0.1556745507863038</v>
       </c>
       <c r="Q17">
-        <v>823.9602069156281</v>
+        <v>880.4650230416358</v>
       </c>
       <c r="R17">
-        <v>823.9602069156281</v>
+        <v>7924.185207374723</v>
       </c>
       <c r="S17">
-        <v>0.005588605328881613</v>
+        <v>0.004834697377346281</v>
       </c>
       <c r="T17">
-        <v>0.005588605328881613</v>
+        <v>0.004834697377346281</v>
       </c>
     </row>
   </sheetData>
